--- a/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11656,7 +11657,6 @@
           <t>华夏兴华混合H</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>89.82</t>
@@ -11688,7 +11688,6 @@
           <t>西部利得景程灵活配置混合C</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
           <t>80.81</t>
@@ -11704,6 +11703,5034 @@
       </c>
       <c r="H110" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.7460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>131.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>137.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.9880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4823</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3876</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.1292</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.1144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.6212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.5491</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.2593</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>108.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7954</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.7265</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4986</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.4604</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3476</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2890</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.2682</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.1971</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.1671</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.0718</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.9898</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.7343</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.7244</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>45.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.7203</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.6213</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.4903</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.3162</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1722</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1415</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1053</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0071</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9573</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9481</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9391</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9257</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9090</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8838</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7712</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7667</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7619</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7495</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7471</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7114</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001126</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6827</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6687</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6663</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6193</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5915</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5632</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>66.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5514</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5013</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4482</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4426</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4324</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4268</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>74.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>54.40</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>850088</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>850004</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>160522</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>850099</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16736,4 +16737,5334 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.0520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.5256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.6615</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4947</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>138.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.2443</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.9312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.7299</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.4180</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3660</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.3556</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.2045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>54.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.1978</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.8116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3572</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3046</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2249</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4474</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4349</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3502</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2813</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2510</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2148</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1481</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1478</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0675</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9829</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9671</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9614</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9477</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8762</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8204</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8196</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7753</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7729</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7540</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7067</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6910</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6454</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5871</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5836</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5231</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5186</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4963</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4801</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4401</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4191</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3945</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3945</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3603</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3322</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>53.54</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009335</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银瑞信稳健养老目标一年持有期混合（FOF）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>53.54</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22067,4 +22068,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>139</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>131</v>
+      </c>
+      <c r="D3" t="n">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>185</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22076,7 +22077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22087,17 +22088,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -22107,14 +22128,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>139</v>
-      </c>
-      <c r="D2" t="n">
-        <v>116.53</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>200.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.5402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -22123,14 +22166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>131</v>
-      </c>
-      <c r="D3" t="n">
-        <v>124.2</v>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>110.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -22139,14 +22204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>109</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90.90000000000001</v>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>118.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.6051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -22155,13 +22242,8581 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.8300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6900</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7616</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.7079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>117.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.6406</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3838</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.3759</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.8897</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.8224</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.7310</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.6135</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.5945</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.4916</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.0643</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9177</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.8559</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.7306</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.7299</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.7277</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.6658</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.6087</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.5885</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5125</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.4797</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.4435</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>57.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.4295</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.3694</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>44.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.2887</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.2513</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.2300</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.1738</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008314</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.1032</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.0578</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.0351</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.0262</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.0228</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.0166</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.9821</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.9762</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.9273</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.8475</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.8050</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.7960</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.7909</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.7852</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.7696</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.7481</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.7418</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.6881</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.6646</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.6588</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001126</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>16.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.6399</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.6361</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5175</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4995</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4865</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4817</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4364</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.4277</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.4256</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.4182</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001104</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3587</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3021</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>73.93</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3017</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2293</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>73.93</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>36.64</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>62.94</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>62.94</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>226</v>
+      </c>
+      <c r="D2" t="n">
+        <v>145.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>131</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>185</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>117.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30715,7 +30716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30726,17 +30727,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -30746,14 +30767,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>226</v>
-      </c>
-      <c r="D2" t="n">
-        <v>145.81</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.1574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -30762,14 +30805,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>139</v>
-      </c>
-      <c r="D3" t="n">
-        <v>116.53</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -30778,14 +30843,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>131</v>
-      </c>
-      <c r="D4" t="n">
-        <v>124.2</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -30794,14 +30881,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>109</v>
-      </c>
-      <c r="D5" t="n">
-        <v>90.90000000000001</v>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8173</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -30810,13 +30919,8787 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6219</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3562</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9170</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8664</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7955</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7826</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5792</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4058</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2673</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.2382</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2294</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.0848</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.0848</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>55.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9251</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>44.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.7867</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.7296</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5893</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4997</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3964</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3728</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2817</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2370</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2339</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2066</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0910</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0823</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0700</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0659</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0310</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9388</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9318</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9149</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8987</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8958</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8506</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8482</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8172</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.8014</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7473</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.7228</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.7069</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.7056</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5549</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5528</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5498</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5267</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>35.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4931</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4501</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4056</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3730</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3519</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3518</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3492</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>163811</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银稳健双利债券A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2960</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2935</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011064</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>41.29</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>62.31</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>28.86</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>76.48</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010508</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>博时鑫康混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001334</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011065</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>163812</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中银稳健双利债券B</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>010511</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>博时鑫康混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>232</v>
+      </c>
+      <c r="D2" t="n">
+        <v>122.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>226</v>
+      </c>
+      <c r="D3" t="n">
+        <v>145.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>139</v>
+      </c>
+      <c r="D4" t="n">
+        <v>116.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>131</v>
+      </c>
+      <c r="D5" t="n">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>109</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>185</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>117.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002179-中航光电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -39582,7 +39583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39593,17 +39594,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -39613,14 +39634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>232</v>
-      </c>
-      <c r="D2" t="n">
-        <v>122.78</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.7371</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -39629,14 +39672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>226</v>
-      </c>
-      <c r="D3" t="n">
-        <v>145.81</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7536</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -39645,14 +39710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>139</v>
-      </c>
-      <c r="D4" t="n">
-        <v>116.53</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7381</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -39661,14 +39748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>131</v>
-      </c>
-      <c r="D5" t="n">
-        <v>124.2</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9012</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -39677,14 +39786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>109</v>
-      </c>
-      <c r="D6" t="n">
-        <v>90.90000000000001</v>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8734</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -39693,13 +39824,9329 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>103.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6110</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.0416</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7148</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>62.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6594</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.5696</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.5500</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3520</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2928</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.2352</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9906</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9351</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.8966</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.8566</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.8516</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.8325</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.7734</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.7734</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>45.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.7282</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.6478</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.5737</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>50.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.5519</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.4507</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.4455</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.3097</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.2851</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.2714</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.2624</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.2414</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.1402</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.1340</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.1157</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.0827</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>37.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.0469</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.0466</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.0354</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.9509</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>49.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.9182</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.8854</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.8519</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.8469</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.8007</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.7730</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.7148</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.7078</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.7066</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.6714</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.6568</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>63.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.6281</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.6220</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5700</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.5237</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.5116</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4908</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4873</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.4872</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.4852</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.4402</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.4318</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012014</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银瑞信聚润6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>49.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.4046</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3861</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013355</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银新金融股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>52.04</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>31.78</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012015</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银瑞信聚润6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>007387</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>融通通慧混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>24.60</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>002612</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>融通通慧混合A/B</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>24.60</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>52.04</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>39.52</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>014282</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>39.52</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>247</v>
+      </c>
+      <c r="D2" t="n">
+        <v>146.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>232</v>
+      </c>
+      <c r="D3" t="n">
+        <v>122.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>226</v>
+      </c>
+      <c r="D4" t="n">
+        <v>145.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>116.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>131</v>
+      </c>
+      <c r="D6" t="n">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>109</v>
+      </c>
+      <c r="D7" t="n">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>185</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>117.35</v>
       </c>
     </row>
